--- a/Code/Results/Cases/Case_4_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_223/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.75015345665687</v>
+        <v>13.75368041504542</v>
       </c>
       <c r="C2">
-        <v>18.31341241108761</v>
+        <v>10.24775696637774</v>
       </c>
       <c r="D2">
-        <v>7.299964876970261</v>
+        <v>5.964908691019467</v>
       </c>
       <c r="E2">
-        <v>30.19573746917028</v>
+        <v>16.55076751924465</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.038189915160023</v>
+        <v>3.601230190727962</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.05042293303654</v>
+        <v>17.95566946979838</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.63665701374291</v>
+        <v>15.91189494916883</v>
       </c>
       <c r="O2">
-        <v>17.04546328055899</v>
+        <v>19.98165726984459</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.22643339926159</v>
+        <v>13.08337459586296</v>
       </c>
       <c r="C3">
-        <v>17.09990038108982</v>
+        <v>9.596962367694028</v>
       </c>
       <c r="D3">
-        <v>6.786852569558775</v>
+        <v>5.842765516817798</v>
       </c>
       <c r="E3">
-        <v>27.96986011352762</v>
+        <v>15.60661971473264</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.045728197737173</v>
+        <v>3.603942032870336</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.95623020224635</v>
+        <v>18.03129993848473</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.81739653797318</v>
+        <v>15.96722713942471</v>
       </c>
       <c r="O3">
-        <v>16.34813528673183</v>
+        <v>19.93647452719252</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.23846385721897</v>
+        <v>12.65542097017515</v>
       </c>
       <c r="C4">
-        <v>16.31488867729857</v>
+        <v>9.172743985704713</v>
       </c>
       <c r="D4">
-        <v>6.455070554964702</v>
+        <v>5.768326594549031</v>
       </c>
       <c r="E4">
-        <v>26.54201420122593</v>
+        <v>15.00200625373128</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.050466933121609</v>
+        <v>3.605692935169996</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.91804768635522</v>
+        <v>18.08329142028107</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.93145839436258</v>
+        <v>16.0030372385761</v>
       </c>
       <c r="O4">
-        <v>15.92949857925901</v>
+        <v>19.91583893981606</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.82257709705683</v>
+        <v>12.47712839186676</v>
       </c>
       <c r="C5">
-        <v>15.98487198390417</v>
+        <v>8.993676589435038</v>
       </c>
       <c r="D5">
-        <v>6.315609181798437</v>
+        <v>5.738179336730623</v>
       </c>
       <c r="E5">
-        <v>25.94436213017343</v>
+        <v>14.74962803607787</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.052427326815665</v>
+        <v>3.606428101530311</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.90715478644574</v>
+        <v>18.10586615319201</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10.97872582344906</v>
+        <v>16.01809295403244</v>
       </c>
       <c r="O5">
-        <v>15.7614440019225</v>
+        <v>19.90921766598145</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.75271440198319</v>
+        <v>12.44729479401609</v>
       </c>
       <c r="C6">
-        <v>15.92945973214921</v>
+        <v>8.963568440566895</v>
       </c>
       <c r="D6">
-        <v>6.292193138113065</v>
+        <v>5.73318609764854</v>
       </c>
       <c r="E6">
-        <v>25.84415698096008</v>
+        <v>14.70736774726427</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.052754664397269</v>
+        <v>3.606551485849305</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.90561972602329</v>
+        <v>18.1096982280942</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>10.98662233565721</v>
+        <v>16.02062093095619</v>
       </c>
       <c r="O6">
-        <v>15.73369687407453</v>
+        <v>19.90822617184665</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.23290896938799</v>
+        <v>12.65303191805154</v>
       </c>
       <c r="C7">
-        <v>16.31047902295984</v>
+        <v>9.170354103353695</v>
       </c>
       <c r="D7">
-        <v>6.453207034408825</v>
+        <v>5.767919197589298</v>
       </c>
       <c r="E7">
-        <v>26.53401853189025</v>
+        <v>14.99862646528523</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.050493250916111</v>
+        <v>3.605702762077623</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.9178822534243</v>
+        <v>18.08359026382248</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.93209266215705</v>
+        <v>16.00323840981146</v>
       </c>
       <c r="O7">
-        <v>15.92722163241435</v>
+        <v>19.91574240462558</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.2355837375735</v>
+        <v>13.52608164171616</v>
       </c>
       <c r="C8">
-        <v>17.90322283175903</v>
+        <v>10.0284720539351</v>
       </c>
       <c r="D8">
-        <v>7.126484481185297</v>
+        <v>5.922706050900596</v>
       </c>
       <c r="E8">
-        <v>29.44068481976383</v>
+        <v>16.23053943580562</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.040767251967407</v>
+        <v>3.602147469720422</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.01370343000301</v>
+        <v>17.98058883778998</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.69834120674493</v>
+        <v>15.93059313676776</v>
       </c>
       <c r="O8">
-        <v>16.80313088068196</v>
+        <v>19.9646044396161</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.75236113777168</v>
+        <v>15.1000664469454</v>
       </c>
       <c r="C9">
-        <v>20.7143962288354</v>
+        <v>11.51611301578408</v>
       </c>
       <c r="D9">
-        <v>8.316469772274852</v>
+        <v>6.228637760004749</v>
       </c>
       <c r="E9">
-        <v>34.67618473827064</v>
+        <v>18.544505278046</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.022489081721914</v>
+        <v>3.595852877254293</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.36937336075577</v>
+        <v>17.82306130162166</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.2640169655511</v>
+        <v>15.80265101021107</v>
       </c>
       <c r="O9">
-        <v>18.59104988156409</v>
+        <v>20.11666900011288</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.09412896004699</v>
+        <v>16.16351087716223</v>
       </c>
       <c r="C10">
-        <v>22.59677798094547</v>
+        <v>12.49072989441389</v>
       </c>
       <c r="D10">
-        <v>9.114917020949347</v>
+        <v>6.45223589913866</v>
       </c>
       <c r="E10">
-        <v>38.27188348527378</v>
+        <v>20.1992190691888</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.009420494793886</v>
+        <v>3.591636082005022</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.74840185638055</v>
+        <v>17.73495084049572</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.959031673817202</v>
+        <v>15.71742863312161</v>
       </c>
       <c r="O10">
-        <v>19.94276437062073</v>
+        <v>20.26233481341316</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.10896819380497</v>
+        <v>16.62574134741159</v>
       </c>
       <c r="C11">
-        <v>23.41532330998175</v>
+        <v>12.90857752158766</v>
       </c>
       <c r="D11">
-        <v>9.462553329809461</v>
+        <v>6.553179223102071</v>
       </c>
       <c r="E11">
-        <v>39.86156758360416</v>
+        <v>20.90982786788679</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.003521863143249</v>
+        <v>3.589805227706967</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.94950137364293</v>
+        <v>17.70097371003353</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.82325072487683</v>
+        <v>15.68054963580586</v>
       </c>
       <c r="O11">
-        <v>20.65899232430352</v>
+        <v>20.33585034083784</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.48619832429276</v>
+        <v>16.79759063485281</v>
       </c>
       <c r="C12">
-        <v>23.72004067356907</v>
+        <v>13.06315168793409</v>
       </c>
       <c r="D12">
-        <v>9.592032414658066</v>
+        <v>6.591251993350254</v>
       </c>
       <c r="E12">
-        <v>40.4577360141457</v>
+        <v>21.17289674979769</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.001291845552269</v>
+        <v>3.589124413943492</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.0300218241533</v>
+        <v>17.68899386296162</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.772253599812705</v>
+        <v>15.66685509352343</v>
       </c>
       <c r="O12">
-        <v>20.96355193465775</v>
+        <v>20.36471762165434</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.40526620585432</v>
+        <v>16.76072284402057</v>
       </c>
       <c r="C13">
-        <v>23.6546445860278</v>
+        <v>13.03002374911151</v>
       </c>
       <c r="D13">
-        <v>9.564241676554618</v>
+        <v>6.583059743941471</v>
       </c>
       <c r="E13">
-        <v>40.32958476999554</v>
+        <v>21.11650749245933</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.0017720086403</v>
+        <v>3.589270485019279</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.01248214358168</v>
+        <v>17.69153437183374</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.783218121174048</v>
+        <v>15.66979243152552</v>
       </c>
       <c r="O13">
-        <v>20.89805140483733</v>
+        <v>20.35845504045648</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.14014364592956</v>
+        <v>16.63994383186681</v>
       </c>
       <c r="C14">
-        <v>23.44049664025274</v>
+        <v>12.92136761984412</v>
       </c>
       <c r="D14">
-        <v>9.473248537246356</v>
+        <v>6.556314772078889</v>
       </c>
       <c r="E14">
-        <v>39.91072612463869</v>
+        <v>20.93159121924571</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.003338343345105</v>
+        <v>3.589748966839431</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.95603689656602</v>
+        <v>17.6999703040242</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.819046763818703</v>
+        <v>15.67941755680318</v>
       </c>
       <c r="O14">
-        <v>20.68409035257168</v>
+        <v>20.33820474485443</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.97683390737912</v>
+        <v>16.56554570367449</v>
       </c>
       <c r="C15">
-        <v>23.30864720610173</v>
+        <v>12.85433692262472</v>
       </c>
       <c r="D15">
-        <v>9.41723331509527</v>
+        <v>6.539911692095823</v>
       </c>
       <c r="E15">
-        <v>39.6534323748432</v>
+        <v>20.81754128787901</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.004298150416461</v>
+        <v>3.590043675245962</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.92203866871654</v>
+        <v>17.70525326544024</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.84104743397709</v>
+        <v>15.68534845480826</v>
       </c>
       <c r="O15">
-        <v>20.55276012750318</v>
+        <v>20.32593434262218</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.0268072446174</v>
+        <v>16.13286155315211</v>
       </c>
       <c r="C16">
-        <v>22.54253929928109</v>
+        <v>12.4629102965854</v>
       </c>
       <c r="D16">
-        <v>9.091891081601917</v>
+        <v>6.445619895348003</v>
       </c>
       <c r="E16">
-        <v>38.16713426477463</v>
+        <v>20.15193435525173</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.009806669132224</v>
+        <v>3.591757484659906</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.73585758099838</v>
+        <v>17.73729491852695</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.96796432362542</v>
+        <v>15.71987669672524</v>
       </c>
       <c r="O16">
-        <v>19.90221347046898</v>
+        <v>20.25767515406255</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.43120324687462</v>
+        <v>15.86183820984404</v>
       </c>
       <c r="C17">
-        <v>22.06300776323632</v>
+        <v>12.21625760606598</v>
       </c>
       <c r="D17">
-        <v>8.888366207169511</v>
+        <v>6.387547014333125</v>
       </c>
       <c r="E17">
-        <v>37.24409111425661</v>
+        <v>19.73284070766383</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.013195820026475</v>
+        <v>3.592831179577981</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.62916178583914</v>
+        <v>17.7585212780161</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.04657720955912</v>
+        <v>15.7415418352487</v>
       </c>
       <c r="O17">
-        <v>19.54774642336844</v>
+        <v>20.21764821054825</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.08386740309023</v>
+        <v>15.70392996206215</v>
       </c>
       <c r="C18">
-        <v>21.783627576886</v>
+        <v>12.07198749960443</v>
       </c>
       <c r="D18">
-        <v>8.769832466562473</v>
+        <v>6.354074628348466</v>
       </c>
       <c r="E18">
-        <v>36.7087952333897</v>
+        <v>19.48782169402086</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.015149731535788</v>
+        <v>3.593456970248928</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.57047822078433</v>
+        <v>17.77130422272333</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.0920719439568</v>
+        <v>15.75418091283881</v>
       </c>
       <c r="O18">
-        <v>19.34462698882404</v>
+        <v>20.19530930158763</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.96544254349771</v>
+        <v>15.65012056138855</v>
       </c>
       <c r="C19">
-        <v>21.68841656882151</v>
+        <v>12.02272720402366</v>
       </c>
       <c r="D19">
-        <v>8.72944398633159</v>
+        <v>6.342730655243764</v>
       </c>
       <c r="E19">
-        <v>36.52677722186011</v>
+        <v>19.40417999171306</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.015812161027261</v>
+        <v>3.59367026797824</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.55106261751041</v>
+        <v>17.77573064188925</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.10752372896524</v>
+        <v>15.75849086381272</v>
       </c>
       <c r="O19">
-        <v>19.27598432736263</v>
+        <v>20.18786352442337</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.49509768538887</v>
+        <v>15.89089916689417</v>
       </c>
       <c r="C20">
-        <v>22.11442257403003</v>
+        <v>12.24276271508375</v>
       </c>
       <c r="D20">
-        <v>8.910183546776679</v>
+        <v>6.393736563619636</v>
       </c>
       <c r="E20">
-        <v>37.34279907544536</v>
+        <v>19.77786430226163</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.012834587515759</v>
+        <v>3.592716031721993</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.64024006257016</v>
+        <v>17.75620221462531</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.03817993430387</v>
+        <v>15.73921714293668</v>
       </c>
       <c r="O20">
-        <v>19.58540115500115</v>
+        <v>20.22183850038551</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.21820679059921</v>
+        <v>16.67550670029171</v>
       </c>
       <c r="C21">
-        <v>23.50353794190137</v>
+        <v>12.95338166623246</v>
       </c>
       <c r="D21">
-        <v>9.500033484542852</v>
+        <v>6.564174867740932</v>
       </c>
       <c r="E21">
-        <v>40.03390573578758</v>
+        <v>20.98606880384941</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.002878199212442</v>
+        <v>3.58960808672404</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.97249573761291</v>
+        <v>17.69746833735744</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.808511652982373</v>
+        <v>15.67658308370328</v>
       </c>
       <c r="O21">
-        <v>20.74699235596351</v>
+        <v>20.34412495700802</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.30326560083229</v>
+        <v>17.16968372006526</v>
       </c>
       <c r="C22">
-        <v>24.38091845866954</v>
+        <v>13.39651079079174</v>
       </c>
       <c r="D22">
-        <v>9.872966961235838</v>
+        <v>6.674661172123367</v>
       </c>
       <c r="E22">
-        <v>41.75929658836006</v>
+        <v>21.74060820534432</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.996390805304875</v>
+        <v>3.587649637619125</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.21521978179771</v>
+        <v>17.66425372231647</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.66085809038359</v>
+        <v>15.6372257444938</v>
       </c>
       <c r="O22">
-        <v>21.62970219495789</v>
+        <v>20.43003328464739</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.72784217968831</v>
+        <v>16.90766070888493</v>
       </c>
       <c r="C23">
-        <v>23.91536688946173</v>
+        <v>13.16194907342744</v>
       </c>
       <c r="D23">
-        <v>9.675047730710054</v>
+        <v>6.615788342813768</v>
       </c>
       <c r="E23">
-        <v>40.84118061151342</v>
+        <v>21.34109580164974</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.999852545050125</v>
+        <v>3.588688264804821</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.08325266615847</v>
+        <v>17.68150500091211</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.739440865528664</v>
+        <v>15.65808743772934</v>
       </c>
       <c r="O23">
-        <v>21.15963871325889</v>
+        <v>20.38363982341519</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.46622633319158</v>
+        <v>15.87776722138183</v>
       </c>
       <c r="C24">
-        <v>22.09118944849024</v>
+        <v>12.23078743796499</v>
       </c>
       <c r="D24">
-        <v>8.900324682011266</v>
+        <v>6.390938531605153</v>
       </c>
       <c r="E24">
-        <v>37.2981876746097</v>
+        <v>19.75752183556967</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.012997883557363</v>
+        <v>3.592768063556513</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.63522331538653</v>
+        <v>17.75724885832468</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.04197541028766</v>
+        <v>15.74026756465533</v>
       </c>
       <c r="O24">
-        <v>19.56837537177434</v>
+        <v>20.21994197257776</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.84412243743612</v>
+        <v>14.6900503550952</v>
       </c>
       <c r="C25">
-        <v>19.98662530423386</v>
+        <v>11.13450232586118</v>
       </c>
       <c r="D25">
-        <v>8.008140596876423</v>
+        <v>6.145896343363884</v>
       </c>
       <c r="E25">
-        <v>33.30645283981292</v>
+        <v>17.89755159066895</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.027360757842128</v>
+        <v>3.597483744731114</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.25356150827255</v>
+        <v>17.86086250821571</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.37899775018788</v>
+        <v>15.83571636818698</v>
       </c>
       <c r="O25">
-        <v>18.10046771529495</v>
+        <v>20.069536312289</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_223/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.75368041504542</v>
+        <v>22.75015345665685</v>
       </c>
       <c r="C2">
-        <v>10.24775696637774</v>
+        <v>18.31341241108781</v>
       </c>
       <c r="D2">
-        <v>5.964908691019467</v>
+        <v>7.299964876970262</v>
       </c>
       <c r="E2">
-        <v>16.55076751924465</v>
+        <v>30.19573746917028</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.601230190727962</v>
+        <v>2.038189915160157</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.95566946979838</v>
+        <v>12.05042293303655</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.91189494916883</v>
+        <v>10.63665701374291</v>
       </c>
       <c r="O2">
-        <v>19.98165726984459</v>
+        <v>17.04546328055894</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.08337459586296</v>
+        <v>21.2264333992615</v>
       </c>
       <c r="C3">
-        <v>9.596962367694028</v>
+        <v>17.09990038108987</v>
       </c>
       <c r="D3">
-        <v>5.842765516817798</v>
+        <v>6.786852569558843</v>
       </c>
       <c r="E3">
-        <v>15.60661971473264</v>
+        <v>27.96986011352761</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.603942032870336</v>
+        <v>2.045728197736907</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.03129993848473</v>
+        <v>11.95623020224659</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.96722713942471</v>
+        <v>10.81739653797328</v>
       </c>
       <c r="O3">
-        <v>19.93647452719252</v>
+        <v>16.34813528673197</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.65542097017515</v>
+        <v>20.23846385721898</v>
       </c>
       <c r="C4">
-        <v>9.172743985704713</v>
+        <v>16.31488867729857</v>
       </c>
       <c r="D4">
-        <v>5.768326594549031</v>
+        <v>6.455070554964773</v>
       </c>
       <c r="E4">
-        <v>15.00200625373128</v>
+        <v>26.54201420122606</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.605692935169996</v>
+        <v>2.050466933121608</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.08329142028107</v>
+        <v>11.91804768635522</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.0030372385761</v>
+        <v>10.93145839436254</v>
       </c>
       <c r="O4">
-        <v>19.91583893981606</v>
+        <v>15.92949857925903</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.47712839186676</v>
+        <v>19.82257709705678</v>
       </c>
       <c r="C5">
-        <v>8.993676589435038</v>
+        <v>15.98487198390421</v>
       </c>
       <c r="D5">
-        <v>5.738179336730623</v>
+        <v>6.31560918179842</v>
       </c>
       <c r="E5">
-        <v>14.74962803607787</v>
+        <v>25.94436213017339</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.606428101530311</v>
+        <v>2.0524273268158</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.10586615319201</v>
+        <v>11.90715478644583</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.01809295403244</v>
+        <v>10.9787258234491</v>
       </c>
       <c r="O5">
-        <v>19.90921766598145</v>
+        <v>15.76144400192256</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.44729479401609</v>
+        <v>19.75271440198316</v>
       </c>
       <c r="C6">
-        <v>8.963568440566895</v>
+        <v>15.92945973214918</v>
       </c>
       <c r="D6">
-        <v>5.73318609764854</v>
+        <v>6.292193138113033</v>
       </c>
       <c r="E6">
-        <v>14.70736774726427</v>
+        <v>25.84415698096008</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.606551485849305</v>
+        <v>2.052754664397269</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.1096982280942</v>
+        <v>11.90561972602337</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.02062093095619</v>
+        <v>10.98662233565724</v>
       </c>
       <c r="O6">
-        <v>19.90822617184665</v>
+        <v>15.73369687407455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.65303191805154</v>
+        <v>20.23290896938795</v>
       </c>
       <c r="C7">
-        <v>9.170354103353695</v>
+        <v>16.31047902295989</v>
       </c>
       <c r="D7">
-        <v>5.767919197589298</v>
+        <v>6.453207034408838</v>
       </c>
       <c r="E7">
-        <v>14.99862646528523</v>
+        <v>26.53401853189022</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.605702762077623</v>
+        <v>2.050493250916379</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.08359026382248</v>
+        <v>11.91788225342436</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.00323840981146</v>
+        <v>10.93209266215704</v>
       </c>
       <c r="O7">
-        <v>19.91574240462558</v>
+        <v>15.92722163241442</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.52608164171616</v>
+        <v>22.23558373757341</v>
       </c>
       <c r="C8">
-        <v>10.0284720539351</v>
+        <v>17.90322283175894</v>
       </c>
       <c r="D8">
-        <v>5.922706050900596</v>
+        <v>7.126484481185274</v>
       </c>
       <c r="E8">
-        <v>16.23053943580562</v>
+        <v>29.44068481976378</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.602147469720422</v>
+        <v>2.040767251967543</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.98058883778998</v>
+        <v>12.01370343000313</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.93059313676776</v>
+        <v>10.69834120674496</v>
       </c>
       <c r="O8">
-        <v>19.9646044396161</v>
+        <v>16.80313088068205</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.1000664469454</v>
+        <v>25.75236113777177</v>
       </c>
       <c r="C9">
-        <v>11.51611301578408</v>
+        <v>20.7143962288354</v>
       </c>
       <c r="D9">
-        <v>6.228637760004749</v>
+        <v>8.316469772274829</v>
       </c>
       <c r="E9">
-        <v>18.544505278046</v>
+        <v>34.67618473827063</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.595852877254293</v>
+        <v>2.022489081721913</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.82306130162166</v>
+        <v>12.36937336075574</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.80265101021107</v>
+        <v>10.2640169655511</v>
       </c>
       <c r="O9">
-        <v>20.11666900011288</v>
+        <v>18.59104988156409</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.16351087716223</v>
+        <v>28.09412896004701</v>
       </c>
       <c r="C10">
-        <v>12.49072989441389</v>
+        <v>22.59677798094544</v>
       </c>
       <c r="D10">
-        <v>6.45223589913866</v>
+        <v>9.114917020949363</v>
       </c>
       <c r="E10">
-        <v>20.1992190691888</v>
+        <v>38.27188348527379</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.591636082005022</v>
+        <v>2.009420494793888</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.73495084049572</v>
+        <v>12.74840185638055</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.71742863312161</v>
+        <v>9.959031673817202</v>
       </c>
       <c r="O10">
-        <v>20.26233481341316</v>
+        <v>19.94276437062073</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.62574134741159</v>
+        <v>29.10896819380505</v>
       </c>
       <c r="C11">
-        <v>12.90857752158766</v>
+        <v>23.41532330998179</v>
       </c>
       <c r="D11">
-        <v>6.553179223102071</v>
+        <v>9.462553329809491</v>
       </c>
       <c r="E11">
-        <v>20.90982786788679</v>
+        <v>39.8615675836042</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.589805227706967</v>
+        <v>2.003521863143516</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.70097371003353</v>
+        <v>12.9495013736429</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.68054963580586</v>
+        <v>9.823250724876765</v>
       </c>
       <c r="O11">
-        <v>20.33585034083784</v>
+        <v>20.6589923243036</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.79759063485281</v>
+        <v>29.48619832429268</v>
       </c>
       <c r="C12">
-        <v>13.06315168793409</v>
+        <v>23.72004067356896</v>
       </c>
       <c r="D12">
-        <v>6.591251993350254</v>
+        <v>9.592032414658041</v>
       </c>
       <c r="E12">
-        <v>21.17289674979769</v>
+        <v>40.45773601414561</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.589124413943492</v>
+        <v>2.001291845552136</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.68899386296162</v>
+        <v>13.03002182415339</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.66685509352343</v>
+        <v>9.772253599812794</v>
       </c>
       <c r="O12">
-        <v>20.36471762165434</v>
+        <v>20.9635519346577</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.76072284402057</v>
+        <v>29.40526620585423</v>
       </c>
       <c r="C13">
-        <v>13.03002374911151</v>
+        <v>23.65464458602771</v>
       </c>
       <c r="D13">
-        <v>6.583059743941471</v>
+        <v>9.564241676554634</v>
       </c>
       <c r="E13">
-        <v>21.11650749245933</v>
+        <v>40.32958476999557</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.589270485019279</v>
+        <v>2.001772008640169</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.69153437183374</v>
+        <v>13.01248214358175</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.66979243152552</v>
+        <v>9.783218121174036</v>
       </c>
       <c r="O13">
-        <v>20.35845504045648</v>
+        <v>20.89805140483732</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.63994383186681</v>
+        <v>29.14014364592962</v>
       </c>
       <c r="C14">
-        <v>12.92136761984412</v>
+        <v>23.44049664025277</v>
       </c>
       <c r="D14">
-        <v>6.556314772078889</v>
+        <v>9.473248537246441</v>
       </c>
       <c r="E14">
-        <v>20.93159121924571</v>
+        <v>39.91072612463875</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.589748966839431</v>
+        <v>2.003338343345238</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.6999703040242</v>
+        <v>12.95603689656605</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.67941755680318</v>
+        <v>9.819046763818656</v>
       </c>
       <c r="O14">
-        <v>20.33820474485443</v>
+        <v>20.68409035257182</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.56554570367449</v>
+        <v>28.97683390737922</v>
       </c>
       <c r="C15">
-        <v>12.85433692262472</v>
+        <v>23.30864720610176</v>
       </c>
       <c r="D15">
-        <v>6.539911692095823</v>
+        <v>9.417233315095269</v>
       </c>
       <c r="E15">
-        <v>20.81754128787901</v>
+        <v>39.65343237484336</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.590043675245962</v>
+        <v>2.004298150416594</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.70525326544024</v>
+        <v>12.92203866871651</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.68534845480826</v>
+        <v>9.841047433977019</v>
       </c>
       <c r="O15">
-        <v>20.32593434262218</v>
+        <v>20.55276012750328</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.13286155315211</v>
+        <v>28.02680724461738</v>
       </c>
       <c r="C16">
-        <v>12.4629102965854</v>
+        <v>22.5425392992812</v>
       </c>
       <c r="D16">
-        <v>6.445619895348003</v>
+        <v>9.09189108160186</v>
       </c>
       <c r="E16">
-        <v>20.15193435525173</v>
+        <v>38.16713426477462</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.591757484659906</v>
+        <v>2.009806669132226</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.73729491852695</v>
+        <v>12.73585758099844</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.71987669672524</v>
+        <v>9.967964323625408</v>
       </c>
       <c r="O16">
-        <v>20.25767515406255</v>
+        <v>19.90221347046904</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.86183820984404</v>
+        <v>27.43120324687467</v>
       </c>
       <c r="C17">
-        <v>12.21625760606598</v>
+        <v>22.06300776323627</v>
       </c>
       <c r="D17">
-        <v>6.387547014333125</v>
+        <v>8.888366207169604</v>
       </c>
       <c r="E17">
-        <v>19.73284070766383</v>
+        <v>37.24409111425657</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.592831179577981</v>
+        <v>2.013195820026209</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.7585212780161</v>
+        <v>12.6291617858391</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.7415418352487</v>
+        <v>10.04657720955909</v>
       </c>
       <c r="O17">
-        <v>20.21764821054825</v>
+        <v>19.54774642336842</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.70392996206215</v>
+        <v>27.08386740309025</v>
       </c>
       <c r="C18">
-        <v>12.07198749960443</v>
+        <v>21.78362757688607</v>
       </c>
       <c r="D18">
-        <v>6.354074628348466</v>
+        <v>8.769832466562402</v>
       </c>
       <c r="E18">
-        <v>19.48782169402086</v>
+        <v>36.70879523338974</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.593456970248928</v>
+        <v>2.015149731536055</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.77130422272333</v>
+        <v>12.57047822078433</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.75418091283881</v>
+        <v>10.0920719439568</v>
       </c>
       <c r="O18">
-        <v>20.19530930158763</v>
+        <v>19.34462698882406</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.65012056138855</v>
+        <v>26.96544254349772</v>
       </c>
       <c r="C19">
-        <v>12.02272720402366</v>
+        <v>21.68841656882161</v>
       </c>
       <c r="D19">
-        <v>6.342730655243764</v>
+        <v>8.72944398633159</v>
       </c>
       <c r="E19">
-        <v>19.40417999171306</v>
+        <v>36.52677722186016</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.59367026797824</v>
+        <v>2.015812161027128</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.77573064188925</v>
+        <v>12.55106261751042</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.75849086381272</v>
+        <v>10.1075237289652</v>
       </c>
       <c r="O19">
-        <v>20.18786352442337</v>
+        <v>19.27598432736264</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.89089916689417</v>
+        <v>27.49509768538897</v>
       </c>
       <c r="C20">
-        <v>12.24276271508375</v>
+        <v>22.11442257402989</v>
       </c>
       <c r="D20">
-        <v>6.393736563619636</v>
+        <v>8.910183546776704</v>
       </c>
       <c r="E20">
-        <v>19.77786430226163</v>
+        <v>37.34279907544533</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.592716031721993</v>
+        <v>2.012834587515626</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.75620221462531</v>
+        <v>12.64024006257014</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.73921714293668</v>
+        <v>10.03817993430393</v>
       </c>
       <c r="O20">
-        <v>20.22183850038551</v>
+        <v>19.58540115500115</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.67550670029171</v>
+        <v>29.21820679059928</v>
       </c>
       <c r="C21">
-        <v>12.95338166623246</v>
+        <v>23.50353794190136</v>
       </c>
       <c r="D21">
-        <v>6.564174867740932</v>
+        <v>9.500033484542827</v>
       </c>
       <c r="E21">
-        <v>20.98606880384941</v>
+        <v>40.03390573578756</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.58960808672404</v>
+        <v>2.002878199212307</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.69746833735744</v>
+        <v>12.97249573761292</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.67658308370328</v>
+        <v>9.808511652982402</v>
       </c>
       <c r="O21">
-        <v>20.34412495700802</v>
+        <v>20.74699235596351</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.16968372006526</v>
+        <v>30.3032656008323</v>
       </c>
       <c r="C22">
-        <v>13.39651079079174</v>
+        <v>24.38091845866942</v>
       </c>
       <c r="D22">
-        <v>6.674661172123367</v>
+        <v>9.872966961235809</v>
       </c>
       <c r="E22">
-        <v>21.74060820534432</v>
+        <v>41.75929658836009</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.587649637619125</v>
+        <v>1.996390805304741</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.66425372231647</v>
+        <v>13.21521978179775</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.6372257444938</v>
+        <v>9.660858090383579</v>
       </c>
       <c r="O22">
-        <v>20.43003328464739</v>
+        <v>21.62970219495789</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.90766070888493</v>
+        <v>29.72784217968833</v>
       </c>
       <c r="C23">
-        <v>13.16194907342744</v>
+        <v>23.91536688946172</v>
       </c>
       <c r="D23">
-        <v>6.615788342813768</v>
+        <v>9.67504773071007</v>
       </c>
       <c r="E23">
-        <v>21.34109580164974</v>
+        <v>40.84118061151347</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.588688264804821</v>
+        <v>1.999852545050126</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.68150500091211</v>
+        <v>13.08325266615847</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.65808743772934</v>
+        <v>9.739440865528561</v>
       </c>
       <c r="O23">
-        <v>20.38363982341519</v>
+        <v>21.15963871325896</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.87776722138183</v>
+        <v>27.46622633319162</v>
       </c>
       <c r="C24">
-        <v>12.23078743796499</v>
+        <v>22.09118944849023</v>
       </c>
       <c r="D24">
-        <v>6.390938531605153</v>
+        <v>8.900324682011242</v>
       </c>
       <c r="E24">
-        <v>19.75752183556967</v>
+        <v>37.29818767460984</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.592768063556513</v>
+        <v>2.012997883557498</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.75724885832468</v>
+        <v>12.63522331538649</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.74026756465533</v>
+        <v>10.04197541028763</v>
       </c>
       <c r="O24">
-        <v>20.21994197257776</v>
+        <v>19.56837537177432</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.6900503550952</v>
+        <v>24.84412243743609</v>
       </c>
       <c r="C25">
-        <v>11.13450232586118</v>
+        <v>19.98662530423367</v>
       </c>
       <c r="D25">
-        <v>6.145896343363884</v>
+        <v>8.008140596876395</v>
       </c>
       <c r="E25">
-        <v>17.89755159066895</v>
+        <v>33.3064528398129</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.597483744731114</v>
+        <v>2.027360757842259</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.86086250821571</v>
+        <v>12.2535615082725</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.83571636818698</v>
+        <v>10.37899775018782</v>
       </c>
       <c r="O25">
-        <v>20.069536312289</v>
+        <v>18.10046771529495</v>
       </c>
     </row>
   </sheetData>
